--- a/data/pca/factorExposure/factorExposure_2015-03-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02313015640639647</v>
+        <v>0.01267759241920011</v>
       </c>
       <c r="C2">
-        <v>0.02694694846520049</v>
+        <v>0.05374662293498714</v>
       </c>
       <c r="D2">
-        <v>-0.1472647868105277</v>
+        <v>-0.1157125421782786</v>
       </c>
       <c r="E2">
-        <v>-0.06809529309275385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.05538698725981368</v>
+      </c>
+      <c r="F2">
+        <v>-0.03635069449992002</v>
+      </c>
+      <c r="G2">
+        <v>-0.1470187074103055</v>
+      </c>
+      <c r="H2">
+        <v>-0.0583268400247765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04790423896019726</v>
+        <v>0.0238395117004986</v>
       </c>
       <c r="C4">
-        <v>0.0763098423191971</v>
+        <v>0.1134519071299471</v>
       </c>
       <c r="D4">
-        <v>-0.1005781109466013</v>
+        <v>-0.1089913058100715</v>
       </c>
       <c r="E4">
-        <v>-0.1181081952203662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.05465170700432509</v>
+      </c>
+      <c r="F4">
+        <v>-0.09317534247704984</v>
+      </c>
+      <c r="G4">
+        <v>-0.02638629200363705</v>
+      </c>
+      <c r="H4">
+        <v>0.07365163556941229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03006274679410509</v>
+        <v>0.03466291786111479</v>
       </c>
       <c r="C6">
-        <v>0.01765024190218328</v>
+        <v>0.03806486968877794</v>
       </c>
       <c r="D6">
-        <v>-0.1066486797235225</v>
+        <v>-0.09315102609706173</v>
       </c>
       <c r="E6">
-        <v>-0.07541493939179174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.087980598111942</v>
+      </c>
+      <c r="F6">
+        <v>-0.04221016291656642</v>
+      </c>
+      <c r="G6">
+        <v>0.0004577914804428437</v>
+      </c>
+      <c r="H6">
+        <v>-0.01182543308235844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0006933864950627556</v>
+        <v>0.007442052429654674</v>
       </c>
       <c r="C7">
-        <v>0.02504371144471606</v>
+        <v>0.04152137435307867</v>
       </c>
       <c r="D7">
-        <v>-0.1023320982938308</v>
+        <v>-0.09045265910489364</v>
       </c>
       <c r="E7">
-        <v>-0.04544224471074242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08213316726098352</v>
+      </c>
+      <c r="F7">
+        <v>-0.01539267214985187</v>
+      </c>
+      <c r="G7">
+        <v>0.007616023359539007</v>
+      </c>
+      <c r="H7">
+        <v>0.02538091944036173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.001124833248682457</v>
+        <v>-0.004735655968242283</v>
       </c>
       <c r="C8">
-        <v>0.02667138793718764</v>
+        <v>0.03816798954571164</v>
       </c>
       <c r="D8">
-        <v>-0.0727099452960366</v>
+        <v>-0.05861970922891057</v>
       </c>
       <c r="E8">
-        <v>-0.05909733614428091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04864344072524261</v>
+      </c>
+      <c r="F8">
+        <v>-0.05069860168203231</v>
+      </c>
+      <c r="G8">
+        <v>-0.07790643022427263</v>
+      </c>
+      <c r="H8">
+        <v>0.04163694048526798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03767232197647837</v>
+        <v>0.01719443164436675</v>
       </c>
       <c r="C9">
-        <v>0.06661308524704704</v>
+        <v>0.0933127847299956</v>
       </c>
       <c r="D9">
-        <v>-0.1063306915875749</v>
+        <v>-0.09666994876306953</v>
       </c>
       <c r="E9">
-        <v>-0.09795109087104811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0468190413934382</v>
+      </c>
+      <c r="F9">
+        <v>-0.06114780644103493</v>
+      </c>
+      <c r="G9">
+        <v>-0.007521150788588926</v>
+      </c>
+      <c r="H9">
+        <v>0.02572093319328131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1956875143858151</v>
+        <v>0.2440596927757967</v>
       </c>
       <c r="C10">
-        <v>-0.1585804719576811</v>
+        <v>-0.0944821845538369</v>
       </c>
       <c r="D10">
-        <v>0.04228970123538479</v>
+        <v>0.01403922587251496</v>
       </c>
       <c r="E10">
-        <v>-0.0318247870053177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02535020246979266</v>
+      </c>
+      <c r="F10">
+        <v>-0.0408455070917123</v>
+      </c>
+      <c r="G10">
+        <v>0.006431407512609567</v>
+      </c>
+      <c r="H10">
+        <v>0.000893140653361823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01463274188333837</v>
+        <v>0.01086066902662334</v>
       </c>
       <c r="C11">
-        <v>0.0431146162963496</v>
+        <v>0.06128670451410485</v>
       </c>
       <c r="D11">
-        <v>-0.04434451943247265</v>
+        <v>-0.03689938629917311</v>
       </c>
       <c r="E11">
-        <v>0.006094805338551701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.03766559975673939</v>
+      </c>
+      <c r="F11">
+        <v>0.01193474498579952</v>
+      </c>
+      <c r="G11">
+        <v>0.004249139559208141</v>
+      </c>
+      <c r="H11">
+        <v>0.02021267825841921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01346400144835791</v>
+        <v>0.01104723358622674</v>
       </c>
       <c r="C12">
-        <v>0.04325026290719736</v>
+        <v>0.05202659308052536</v>
       </c>
       <c r="D12">
-        <v>-0.06148107656894768</v>
+        <v>-0.04491282808667624</v>
       </c>
       <c r="E12">
-        <v>-0.01354478625435628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03329650070464192</v>
+      </c>
+      <c r="F12">
+        <v>0.01322359538625139</v>
+      </c>
+      <c r="G12">
+        <v>0.01457767221628259</v>
+      </c>
+      <c r="H12">
+        <v>-0.01880049282345637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009362301180608179</v>
+        <v>0.005300574049827577</v>
       </c>
       <c r="C13">
-        <v>0.02765002939150357</v>
+        <v>0.06013824736369778</v>
       </c>
       <c r="D13">
-        <v>-0.1285591688703066</v>
+        <v>-0.1507250365617498</v>
       </c>
       <c r="E13">
-        <v>-0.08326872085453089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.08063228875141949</v>
+      </c>
+      <c r="F13">
+        <v>-0.04098452066996822</v>
+      </c>
+      <c r="G13">
+        <v>-0.06106199531788135</v>
+      </c>
+      <c r="H13">
+        <v>-0.0694978591751453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.007712807268557231</v>
+        <v>0.003905313732554603</v>
       </c>
       <c r="C14">
-        <v>0.0168746853895509</v>
+        <v>0.03496991072212414</v>
       </c>
       <c r="D14">
-        <v>-0.07557877633426562</v>
+        <v>-0.08813273005482863</v>
       </c>
       <c r="E14">
-        <v>-0.03917849916088575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.08717507745942304</v>
+      </c>
+      <c r="F14">
+        <v>-0.03256967755472818</v>
+      </c>
+      <c r="G14">
+        <v>-0.01934912096679176</v>
+      </c>
+      <c r="H14">
+        <v>-0.03038259936830489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003157561432260201</v>
+        <v>-0.00323010133404736</v>
       </c>
       <c r="C15">
-        <v>0.01284308647982204</v>
+        <v>0.03120981045598503</v>
       </c>
       <c r="D15">
-        <v>-0.0463845711526949</v>
+        <v>-0.0589414749993041</v>
       </c>
       <c r="E15">
-        <v>-0.01536209957624433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.03934466445521322</v>
+      </c>
+      <c r="F15">
+        <v>-0.009574547691362815</v>
+      </c>
+      <c r="G15">
+        <v>-0.02768308644582507</v>
+      </c>
+      <c r="H15">
+        <v>0.01449609588854609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0140499485369727</v>
+        <v>0.01037614508243136</v>
       </c>
       <c r="C16">
-        <v>0.03986590672821998</v>
+        <v>0.05344625236242754</v>
       </c>
       <c r="D16">
-        <v>-0.04930493592074756</v>
+        <v>-0.03999969656313405</v>
       </c>
       <c r="E16">
-        <v>-0.006386797427297372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03928271248649083</v>
+      </c>
+      <c r="F16">
+        <v>0.006386525663007754</v>
+      </c>
+      <c r="G16">
+        <v>0.01498022612338681</v>
+      </c>
+      <c r="H16">
+        <v>0.007692257170232138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002994495536082177</v>
+        <v>-0.0006468770023686459</v>
       </c>
       <c r="C19">
-        <v>0.02160400154616346</v>
+        <v>0.01789814127577137</v>
       </c>
       <c r="D19">
-        <v>-0.07047676989011946</v>
+        <v>-0.03881114527756842</v>
       </c>
       <c r="E19">
-        <v>-0.03977414430825987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.002033899851508062</v>
+      </c>
+      <c r="F19">
+        <v>-0.00480816533289793</v>
+      </c>
+      <c r="G19">
+        <v>-0.01882882283109243</v>
+      </c>
+      <c r="H19">
+        <v>-0.01751678538349982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003203057057227749</v>
+        <v>0.006170403024620228</v>
       </c>
       <c r="C20">
-        <v>0.02613829702625968</v>
+        <v>0.0445835996435595</v>
       </c>
       <c r="D20">
-        <v>-0.06798497300922719</v>
+        <v>-0.07603749304484857</v>
       </c>
       <c r="E20">
-        <v>-0.05649912136084079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.04964955076917722</v>
+      </c>
+      <c r="F20">
+        <v>-0.0275054637679298</v>
+      </c>
+      <c r="G20">
+        <v>0.009483652096639584</v>
+      </c>
+      <c r="H20">
+        <v>0.02924955267210081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0040522013685585</v>
+        <v>0.004267189787218384</v>
       </c>
       <c r="C21">
-        <v>0.03058118772690026</v>
+        <v>0.04702136598246105</v>
       </c>
       <c r="D21">
-        <v>-0.1157599622580542</v>
+        <v>-0.1133688977536674</v>
       </c>
       <c r="E21">
-        <v>-0.1242381935460711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.06457784477145363</v>
+      </c>
+      <c r="F21">
+        <v>-0.09635641430103066</v>
+      </c>
+      <c r="G21">
+        <v>-0.07537184273034894</v>
+      </c>
+      <c r="H21">
+        <v>-0.08826811435998085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003754438235402831</v>
+        <v>-0.006090215977493458</v>
       </c>
       <c r="C22">
-        <v>0.0531655322253687</v>
+        <v>0.08412479589700102</v>
       </c>
       <c r="D22">
-        <v>-0.2107373533155129</v>
+        <v>-0.2139064108526424</v>
       </c>
       <c r="E22">
-        <v>-0.0989589371571849</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05390451478909566</v>
+      </c>
+      <c r="F22">
+        <v>-0.03799996666289757</v>
+      </c>
+      <c r="G22">
+        <v>-0.2509158017983674</v>
+      </c>
+      <c r="H22">
+        <v>0.1275408218861634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004277374310782279</v>
+        <v>-0.002992649427823629</v>
       </c>
       <c r="C23">
-        <v>0.05339426540009672</v>
+        <v>0.08584676886092749</v>
       </c>
       <c r="D23">
-        <v>-0.2094810652651692</v>
+        <v>-0.2173887078331132</v>
       </c>
       <c r="E23">
-        <v>-0.09899862707627798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05070446619876639</v>
+      </c>
+      <c r="F23">
+        <v>-0.04118183072646966</v>
+      </c>
+      <c r="G23">
+        <v>-0.2445035341160422</v>
+      </c>
+      <c r="H23">
+        <v>0.1213804515605443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01978964432154394</v>
+        <v>0.01166631199755802</v>
       </c>
       <c r="C24">
-        <v>0.06155415400839659</v>
+        <v>0.07116611677525753</v>
       </c>
       <c r="D24">
-        <v>-0.06470587163580492</v>
+        <v>-0.04166331876101024</v>
       </c>
       <c r="E24">
-        <v>-0.01224492921231103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04780723303237672</v>
+      </c>
+      <c r="F24">
+        <v>0.005655802043995011</v>
+      </c>
+      <c r="G24">
+        <v>-0.003770802939169734</v>
+      </c>
+      <c r="H24">
+        <v>0.01055126451164928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02064007451548275</v>
+        <v>0.01629480670282545</v>
       </c>
       <c r="C25">
-        <v>0.05369257327218039</v>
+        <v>0.06596520481635404</v>
       </c>
       <c r="D25">
-        <v>-0.05552284343298657</v>
+        <v>-0.04449877939643829</v>
       </c>
       <c r="E25">
-        <v>-0.01527920285085422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03155066966551583</v>
+      </c>
+      <c r="F25">
+        <v>0.005224580328584279</v>
+      </c>
+      <c r="G25">
+        <v>0.01137004848780026</v>
+      </c>
+      <c r="H25">
+        <v>0.007003085860005132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00737288414974587</v>
+        <v>0.01694975032203592</v>
       </c>
       <c r="C26">
-        <v>0.01783681503147506</v>
+        <v>0.03137442076455442</v>
       </c>
       <c r="D26">
-        <v>-0.05932966314942564</v>
+        <v>-0.05147427706161693</v>
       </c>
       <c r="E26">
-        <v>-0.04121944669665797</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.06110904006935088</v>
+      </c>
+      <c r="F26">
+        <v>-0.04646140685624733</v>
+      </c>
+      <c r="G26">
+        <v>-0.02994375409632151</v>
+      </c>
+      <c r="H26">
+        <v>-0.0001045452514397659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2765239481636708</v>
+        <v>0.312844182885005</v>
       </c>
       <c r="C28">
-        <v>-0.1741186478288624</v>
+        <v>-0.09507353191428007</v>
       </c>
       <c r="D28">
-        <v>0.01341987745616257</v>
+        <v>0.01695717914522381</v>
       </c>
       <c r="E28">
-        <v>-0.0347933750688198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05461919374612093</v>
+      </c>
+      <c r="F28">
+        <v>-0.04604770920429681</v>
+      </c>
+      <c r="G28">
+        <v>-0.06418723328583693</v>
+      </c>
+      <c r="H28">
+        <v>0.01990550045779629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003214394430519683</v>
+        <v>0.002368957342630712</v>
       </c>
       <c r="C29">
-        <v>0.02051318810909759</v>
+        <v>0.04125893083187421</v>
       </c>
       <c r="D29">
-        <v>-0.0712587685176503</v>
+        <v>-0.09307410386950217</v>
       </c>
       <c r="E29">
-        <v>-0.04718779087683645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1005804030782122</v>
+      </c>
+      <c r="F29">
+        <v>-0.03898373735236515</v>
+      </c>
+      <c r="G29">
+        <v>-0.01437671465404422</v>
+      </c>
+      <c r="H29">
+        <v>-0.03796879761040534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02874892857725516</v>
+        <v>0.01895066362673341</v>
       </c>
       <c r="C30">
-        <v>0.07129075077909837</v>
+        <v>0.09912068336846905</v>
       </c>
       <c r="D30">
-        <v>-0.1455048088575553</v>
+        <v>-0.1130091069367037</v>
       </c>
       <c r="E30">
-        <v>-0.0663705674733067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.08849108998132704</v>
+      </c>
+      <c r="F30">
+        <v>-0.01688971682480968</v>
+      </c>
+      <c r="G30">
+        <v>-0.02244956935687132</v>
+      </c>
+      <c r="H30">
+        <v>0.04635527242920263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03431102743210121</v>
+        <v>0.01184057712602188</v>
       </c>
       <c r="C31">
-        <v>0.0850196793130148</v>
+        <v>0.09520341033763023</v>
       </c>
       <c r="D31">
-        <v>-0.05398127458396185</v>
+        <v>-0.03064030005991526</v>
       </c>
       <c r="E31">
-        <v>-0.02647637755453729</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02462982462411072</v>
+      </c>
+      <c r="F31">
+        <v>-0.01613467591156965</v>
+      </c>
+      <c r="G31">
+        <v>-0.01678876642296808</v>
+      </c>
+      <c r="H31">
+        <v>0.006837603527001157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01499726941493633</v>
+        <v>0.01388615225773511</v>
       </c>
       <c r="C32">
-        <v>0.04105071515658272</v>
+        <v>0.04982068642431757</v>
       </c>
       <c r="D32">
-        <v>-0.08244880723775701</v>
+        <v>-0.07453727538031495</v>
       </c>
       <c r="E32">
-        <v>-0.07514911009718832</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01240576126384272</v>
+      </c>
+      <c r="F32">
+        <v>-0.04934381274461082</v>
+      </c>
+      <c r="G32">
+        <v>-0.03069006718736095</v>
+      </c>
+      <c r="H32">
+        <v>-0.0194692556693699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006914146216397854</v>
+        <v>0.008838837897786228</v>
       </c>
       <c r="C33">
-        <v>0.04089500887161143</v>
+        <v>0.06420646702668834</v>
       </c>
       <c r="D33">
-        <v>-0.105089140722845</v>
+        <v>-0.1060909426637654</v>
       </c>
       <c r="E33">
-        <v>-0.06924097077212533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.06147606687262309</v>
+      </c>
+      <c r="F33">
+        <v>-0.03142848570986656</v>
+      </c>
+      <c r="G33">
+        <v>-0.01375798361423663</v>
+      </c>
+      <c r="H33">
+        <v>0.002487981703309528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01662857579726279</v>
+        <v>0.01026542911988012</v>
       </c>
       <c r="C34">
-        <v>0.06228781348315838</v>
+        <v>0.06362037760863636</v>
       </c>
       <c r="D34">
-        <v>-0.05883984958061213</v>
+        <v>-0.02235549113072976</v>
       </c>
       <c r="E34">
-        <v>0.03276200995704306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03660671306081407</v>
+      </c>
+      <c r="F34">
+        <v>0.03950847237922912</v>
+      </c>
+      <c r="G34">
+        <v>-0.003099860182005405</v>
+      </c>
+      <c r="H34">
+        <v>-0.003118181386888594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-5.62802143547129e-05</v>
+        <v>0.004022072805021707</v>
       </c>
       <c r="C35">
-        <v>-4.810525746022024e-06</v>
+        <v>0.01519291309429772</v>
       </c>
       <c r="D35">
-        <v>0.0005486349301590615</v>
+        <v>-0.0339721717284675</v>
       </c>
       <c r="E35">
-        <v>0.0005057373512994086</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.02116231868732178</v>
+      </c>
+      <c r="F35">
+        <v>-0.01867510852874662</v>
+      </c>
+      <c r="G35">
+        <v>0.001508878664311529</v>
+      </c>
+      <c r="H35">
+        <v>-0.005170715603770103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009632041117926099</v>
+        <v>0.0120561008479619</v>
       </c>
       <c r="C36">
-        <v>0.00793615113278784</v>
+        <v>0.0247701445282393</v>
       </c>
       <c r="D36">
-        <v>-0.05962080418197768</v>
+        <v>-0.062072971501244</v>
       </c>
       <c r="E36">
-        <v>-0.06219387640583714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05078089682050038</v>
+      </c>
+      <c r="F36">
+        <v>-0.04959427300083791</v>
+      </c>
+      <c r="G36">
+        <v>-0.01789555047577492</v>
+      </c>
+      <c r="H36">
+        <v>0.002329766045046242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005510464873900308</v>
+        <v>0.01151864864881324</v>
       </c>
       <c r="C38">
-        <v>0.008473413061223218</v>
+        <v>0.02840220185557134</v>
       </c>
       <c r="D38">
-        <v>-0.08865604413725217</v>
+        <v>-0.08770682630600883</v>
       </c>
       <c r="E38">
-        <v>-0.03944432667522225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.03643395466373324</v>
+      </c>
+      <c r="F38">
+        <v>-0.009713323823900295</v>
+      </c>
+      <c r="G38">
+        <v>-0.03855082093841953</v>
+      </c>
+      <c r="H38">
+        <v>0.03748546231334278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01367345896886335</v>
+        <v>0.007294513464342536</v>
       </c>
       <c r="C39">
-        <v>0.06301680718913841</v>
+        <v>0.08896020350097657</v>
       </c>
       <c r="D39">
-        <v>-0.1072857137382458</v>
+        <v>-0.08374690771052225</v>
       </c>
       <c r="E39">
-        <v>-0.02835935682420155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08364668538798944</v>
+      </c>
+      <c r="F39">
+        <v>0.00562344942339226</v>
+      </c>
+      <c r="G39">
+        <v>-0.001697829278055913</v>
+      </c>
+      <c r="H39">
+        <v>0.00736474958552768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01805052641654278</v>
+        <v>0.01440123287022549</v>
       </c>
       <c r="C40">
-        <v>0.02547691528672336</v>
+        <v>0.04379497217832664</v>
       </c>
       <c r="D40">
-        <v>-0.1207239567297279</v>
+        <v>-0.08481974434447496</v>
       </c>
       <c r="E40">
-        <v>-0.02284369711076583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07482370094995171</v>
+      </c>
+      <c r="F40">
+        <v>0.02816598236786311</v>
+      </c>
+      <c r="G40">
+        <v>-0.08590380396456267</v>
+      </c>
+      <c r="H40">
+        <v>-0.02571275123320235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01106854871801615</v>
+        <v>0.0188453696275351</v>
       </c>
       <c r="C41">
-        <v>0.005379506013074492</v>
+        <v>0.02385050798537384</v>
       </c>
       <c r="D41">
-        <v>-0.03142469922584264</v>
+        <v>-0.04146759855784789</v>
       </c>
       <c r="E41">
-        <v>-0.03067087490054465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01417260164177988</v>
+      </c>
+      <c r="F41">
+        <v>-0.02087525948720751</v>
+      </c>
+      <c r="G41">
+        <v>-0.01098017359014352</v>
+      </c>
+      <c r="H41">
+        <v>0.004176251029929431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0009872216733703637</v>
+        <v>0.01001513906792827</v>
       </c>
       <c r="C43">
-        <v>0.001335368310872307</v>
+        <v>0.01697121945902175</v>
       </c>
       <c r="D43">
-        <v>-0.04507040625049567</v>
+        <v>-0.05051245857481349</v>
       </c>
       <c r="E43">
-        <v>-0.03433758857250223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02766917565112935</v>
+      </c>
+      <c r="F43">
+        <v>-0.02364093967071769</v>
+      </c>
+      <c r="G43">
+        <v>-0.006431708573710193</v>
+      </c>
+      <c r="H43">
+        <v>0.01837430574401899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01958278726301295</v>
+        <v>0.01126972614860153</v>
       </c>
       <c r="C44">
-        <v>0.02729387022018244</v>
+        <v>0.05181912776182596</v>
       </c>
       <c r="D44">
-        <v>-0.09267139935741141</v>
+        <v>-0.09551287246910906</v>
       </c>
       <c r="E44">
-        <v>-0.08254187427162718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07215281004065327</v>
+      </c>
+      <c r="F44">
+        <v>-0.03832706461760246</v>
+      </c>
+      <c r="G44">
+        <v>-0.04486827877267091</v>
+      </c>
+      <c r="H44">
+        <v>0.02559344557479747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002304648103769391</v>
+        <v>-0.001313171519720731</v>
       </c>
       <c r="C46">
-        <v>0.03065978137596129</v>
+        <v>0.04334688635645619</v>
       </c>
       <c r="D46">
-        <v>-0.07812998993359924</v>
+        <v>-0.0666653205971251</v>
       </c>
       <c r="E46">
-        <v>-0.04453513639967002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07517222611030501</v>
+      </c>
+      <c r="F46">
+        <v>-0.03420853802995441</v>
+      </c>
+      <c r="G46">
+        <v>-0.02572203297965465</v>
+      </c>
+      <c r="H46">
+        <v>-1.155096151234222e-06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06886596374129199</v>
+        <v>0.03220586396099912</v>
       </c>
       <c r="C47">
-        <v>0.1145319853574322</v>
+        <v>0.1252964687317978</v>
       </c>
       <c r="D47">
-        <v>-0.06010822481980655</v>
+        <v>-0.02323535705687644</v>
       </c>
       <c r="E47">
-        <v>-0.03052342017205299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.001093175149451529</v>
+      </c>
+      <c r="F47">
+        <v>0.003832043082996813</v>
+      </c>
+      <c r="G47">
+        <v>0.01965215606377343</v>
+      </c>
+      <c r="H47">
+        <v>0.01207608214953004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009749790016792015</v>
+        <v>0.01478170628644022</v>
       </c>
       <c r="C48">
-        <v>0.01746752697813308</v>
+        <v>0.03508270015517584</v>
       </c>
       <c r="D48">
-        <v>-0.06483896724008706</v>
+        <v>-0.06828019425791826</v>
       </c>
       <c r="E48">
-        <v>-0.06761620727630116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04618250273312494</v>
+      </c>
+      <c r="F48">
+        <v>-0.05724862798257711</v>
+      </c>
+      <c r="G48">
+        <v>-0.02668618119962887</v>
+      </c>
+      <c r="H48">
+        <v>0.01232506160309512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002245512454723315</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.000651406833327034</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0008818957951259054</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0009674972149155145</v>
+      </c>
+      <c r="F49">
+        <v>-0.0009662603651057049</v>
+      </c>
+      <c r="G49">
+        <v>0.0006585577105693139</v>
+      </c>
+      <c r="H49">
+        <v>-0.00283064422986377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03128164313501602</v>
+        <v>0.01510036819099471</v>
       </c>
       <c r="C50">
-        <v>0.05823440296994491</v>
+        <v>0.07603518555922675</v>
       </c>
       <c r="D50">
-        <v>-0.0600513583401896</v>
+        <v>-0.04444231185446722</v>
       </c>
       <c r="E50">
-        <v>-0.02036174506140166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02863096417322075</v>
+      </c>
+      <c r="F50">
+        <v>-0.009091644689721769</v>
+      </c>
+      <c r="G50">
+        <v>-0.0163447670472381</v>
+      </c>
+      <c r="H50">
+        <v>0.01989186835726141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004562685144769864</v>
+        <v>-0.004059862863281841</v>
       </c>
       <c r="C51">
-        <v>0.006278371158418039</v>
+        <v>0.01951333049715276</v>
       </c>
       <c r="D51">
-        <v>-0.06194365256593226</v>
+        <v>-0.04580598393147592</v>
       </c>
       <c r="E51">
-        <v>-0.0352858892100566</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05397229887848311</v>
+      </c>
+      <c r="F51">
+        <v>-0.03639428889852107</v>
+      </c>
+      <c r="G51">
+        <v>-0.04884801032008008</v>
+      </c>
+      <c r="H51">
+        <v>-0.002071291638524758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1035332110993728</v>
+        <v>0.06065115415737229</v>
       </c>
       <c r="C53">
-        <v>0.1358706282872988</v>
+        <v>0.1625107219569592</v>
       </c>
       <c r="D53">
-        <v>0.0053521019909504</v>
+        <v>0.02232749955635868</v>
       </c>
       <c r="E53">
-        <v>-0.03650621610492351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03084338300369334</v>
+      </c>
+      <c r="F53">
+        <v>-0.04016861088351557</v>
+      </c>
+      <c r="G53">
+        <v>-0.009051995269463937</v>
+      </c>
+      <c r="H53">
+        <v>0.01021031916082165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.008499875178113908</v>
+        <v>0.0123648742872929</v>
       </c>
       <c r="C54">
-        <v>0.02294873877450285</v>
+        <v>0.04186569409323989</v>
       </c>
       <c r="D54">
-        <v>-0.09111593732861095</v>
+        <v>-0.07553405883978677</v>
       </c>
       <c r="E54">
-        <v>-0.03330375625899454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.04433501772200823</v>
+      </c>
+      <c r="F54">
+        <v>-0.0070037294037206</v>
+      </c>
+      <c r="G54">
+        <v>-0.02612325786904097</v>
+      </c>
+      <c r="H54">
+        <v>0.02628025003732385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08578422751796194</v>
+        <v>0.04289364703674388</v>
       </c>
       <c r="C55">
-        <v>0.1134326952552741</v>
+        <v>0.1273916389427405</v>
       </c>
       <c r="D55">
-        <v>-0.0004269402285603153</v>
+        <v>0.04504038924191901</v>
       </c>
       <c r="E55">
-        <v>0.005658026377477655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008399491500944054</v>
+      </c>
+      <c r="F55">
+        <v>-0.002322474229898436</v>
+      </c>
+      <c r="G55">
+        <v>-0.01554279430999758</v>
+      </c>
+      <c r="H55">
+        <v>-0.005517550174902981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1264906039112941</v>
+        <v>0.06196430686552794</v>
       </c>
       <c r="C56">
-        <v>0.1581117705240985</v>
+        <v>0.1907363128952025</v>
       </c>
       <c r="D56">
-        <v>-0.0201929124103966</v>
+        <v>0.04151928044180002</v>
       </c>
       <c r="E56">
-        <v>0.008986761873327439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03480445968284555</v>
+      </c>
+      <c r="F56">
+        <v>-0.001956684933935304</v>
+      </c>
+      <c r="G56">
+        <v>-0.06792005517081548</v>
+      </c>
+      <c r="H56">
+        <v>0.007441436427088961</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00215096259359097</v>
+        <v>0.008731479857969907</v>
       </c>
       <c r="C58">
-        <v>0.0174953360332306</v>
+        <v>0.06841208608616152</v>
       </c>
       <c r="D58">
-        <v>-0.2137287325988857</v>
+        <v>-0.2619890286203456</v>
       </c>
       <c r="E58">
-        <v>-0.1815611985629445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.07976025831440854</v>
+      </c>
+      <c r="F58">
+        <v>-0.1395337319662249</v>
+      </c>
+      <c r="G58">
+        <v>-0.1628212990946757</v>
+      </c>
+      <c r="H58">
+        <v>0.09211067575182862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2004383682451768</v>
+        <v>0.2579002016941359</v>
       </c>
       <c r="C59">
-        <v>-0.1253169943182177</v>
+        <v>-0.05836782898128828</v>
       </c>
       <c r="D59">
-        <v>-0.04854928262152525</v>
+        <v>-0.04304390132509806</v>
       </c>
       <c r="E59">
-        <v>-0.04210713923720594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01429630979827822</v>
+      </c>
+      <c r="F59">
+        <v>-0.01819483586835161</v>
+      </c>
+      <c r="G59">
+        <v>-0.02765306839394105</v>
+      </c>
+      <c r="H59">
+        <v>-0.03321690973861672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1776891744350365</v>
+        <v>0.1537954271401642</v>
       </c>
       <c r="C60">
-        <v>0.1047998408350671</v>
+        <v>0.1626809786973005</v>
       </c>
       <c r="D60">
-        <v>-0.123726465294517</v>
+        <v>-0.03914102973197629</v>
       </c>
       <c r="E60">
-        <v>0.06345230660033552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1149438413858551</v>
+      </c>
+      <c r="F60">
+        <v>0.1876229877233946</v>
+      </c>
+      <c r="G60">
+        <v>0.2595301475705059</v>
+      </c>
+      <c r="H60">
+        <v>-0.1293607699904642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02491449078440541</v>
+        <v>0.01494395796672633</v>
       </c>
       <c r="C61">
-        <v>0.05843317207229206</v>
+        <v>0.08265074303625511</v>
       </c>
       <c r="D61">
-        <v>-0.08024012547435176</v>
+        <v>-0.06068970504473231</v>
       </c>
       <c r="E61">
-        <v>-0.01149623346818031</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.05904510068414053</v>
+      </c>
+      <c r="F61">
+        <v>0.01366406227343001</v>
+      </c>
+      <c r="G61">
+        <v>0.003802527622118981</v>
+      </c>
+      <c r="H61">
+        <v>-0.0001362049339608244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01100321272786469</v>
+        <v>0.0159293773887675</v>
       </c>
       <c r="C63">
-        <v>0.02637510161450885</v>
+        <v>0.04554980404689558</v>
       </c>
       <c r="D63">
-        <v>-0.07606868975518108</v>
+        <v>-0.05009008400916143</v>
       </c>
       <c r="E63">
-        <v>-0.03778468461428131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.07923463363691786</v>
+      </c>
+      <c r="F63">
+        <v>-0.02334309007131709</v>
+      </c>
+      <c r="G63">
+        <v>-0.01010564618204908</v>
+      </c>
+      <c r="H63">
+        <v>0.009098422183919104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04818286132472634</v>
+        <v>0.01727239763541887</v>
       </c>
       <c r="C64">
-        <v>0.09298015134827123</v>
+        <v>0.105721898799426</v>
       </c>
       <c r="D64">
-        <v>-0.02854140469827549</v>
+        <v>-0.01523736081193561</v>
       </c>
       <c r="E64">
-        <v>-0.02978922576473908</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03873582249352434</v>
+      </c>
+      <c r="F64">
+        <v>-0.01976878052377167</v>
+      </c>
+      <c r="G64">
+        <v>0.02398037132915925</v>
+      </c>
+      <c r="H64">
+        <v>0.02292323121772547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02667587918901493</v>
+        <v>0.02673687323417048</v>
       </c>
       <c r="C65">
-        <v>0.01834961382018127</v>
+        <v>0.04489160054436691</v>
       </c>
       <c r="D65">
-        <v>-0.09235219741485994</v>
+        <v>-0.09358903156810097</v>
       </c>
       <c r="E65">
-        <v>-0.03682140114302146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.06742576588701504</v>
+      </c>
+      <c r="F65">
+        <v>0.008509265963231856</v>
+      </c>
+      <c r="G65">
+        <v>0.04734485600365886</v>
+      </c>
+      <c r="H65">
+        <v>0.02583224250034365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02028397040412638</v>
+        <v>0.008407409665112749</v>
       </c>
       <c r="C66">
-        <v>0.0749094015568324</v>
+        <v>0.109586475886748</v>
       </c>
       <c r="D66">
-        <v>-0.1271641099666014</v>
+        <v>-0.1076196579013377</v>
       </c>
       <c r="E66">
-        <v>-0.03080926689582627</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.07919581670854983</v>
+      </c>
+      <c r="F66">
+        <v>0.006275662680827733</v>
+      </c>
+      <c r="G66">
+        <v>-0.02214338723935332</v>
+      </c>
+      <c r="H66">
+        <v>0.01405188446734281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01942993994808978</v>
+        <v>0.02056268859409973</v>
       </c>
       <c r="C67">
-        <v>0.02003984485712756</v>
+        <v>0.03588664529452604</v>
       </c>
       <c r="D67">
-        <v>-0.05547976489064092</v>
+        <v>-0.04835154977702518</v>
       </c>
       <c r="E67">
-        <v>-0.002636242044662267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03235748871254319</v>
+      </c>
+      <c r="F67">
+        <v>0.0196290864677891</v>
+      </c>
+      <c r="G67">
+        <v>-0.01290966961208637</v>
+      </c>
+      <c r="H67">
+        <v>0.02513483570629683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2140368025016955</v>
+        <v>0.2786893667853453</v>
       </c>
       <c r="C68">
-        <v>-0.138339344768327</v>
+        <v>-0.0714786749008645</v>
       </c>
       <c r="D68">
-        <v>-0.01906537493513694</v>
+        <v>-0.02854261852130106</v>
       </c>
       <c r="E68">
-        <v>-0.02618356915560388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003995178802092467</v>
+      </c>
+      <c r="F68">
+        <v>-0.02691196101409903</v>
+      </c>
+      <c r="G68">
+        <v>-0.05409427055496023</v>
+      </c>
+      <c r="H68">
+        <v>0.003658481849902959</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0501882284793076</v>
+        <v>0.01604496908956205</v>
       </c>
       <c r="C69">
-        <v>0.1190667286809514</v>
+        <v>0.1134050075501545</v>
       </c>
       <c r="D69">
-        <v>-0.07921235131428135</v>
+        <v>-0.01930578899330659</v>
       </c>
       <c r="E69">
-        <v>-0.02779496686148208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01466216084879559</v>
+      </c>
+      <c r="F69">
+        <v>0.01544494911605439</v>
+      </c>
+      <c r="G69">
+        <v>0.01190687095823112</v>
+      </c>
+      <c r="H69">
+        <v>-0.005328304724693468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2316235193560625</v>
+        <v>0.2715308669328877</v>
       </c>
       <c r="C71">
-        <v>-0.1599147119764475</v>
+        <v>-0.08675266029147841</v>
       </c>
       <c r="D71">
-        <v>-0.0134585458878049</v>
+        <v>-0.006903407590620009</v>
       </c>
       <c r="E71">
-        <v>-0.005096789921791952</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007212109945582268</v>
+      </c>
+      <c r="F71">
+        <v>-0.01185633329588734</v>
+      </c>
+      <c r="G71">
+        <v>-0.04503648148739509</v>
+      </c>
+      <c r="H71">
+        <v>0.01839177855212181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0982772735422851</v>
+        <v>0.06513369848943283</v>
       </c>
       <c r="C72">
-        <v>0.07671499578293424</v>
+        <v>0.1238142184826388</v>
       </c>
       <c r="D72">
-        <v>-0.1081297904845579</v>
+        <v>-0.05011264335186298</v>
       </c>
       <c r="E72">
-        <v>-0.02132516231238894</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08342503865197698</v>
+      </c>
+      <c r="F72">
+        <v>0.01880451234080584</v>
+      </c>
+      <c r="G72">
+        <v>0.03673917096488649</v>
+      </c>
+      <c r="H72">
+        <v>-0.001021330491267516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1694523081584203</v>
+        <v>0.1576945906577222</v>
       </c>
       <c r="C73">
-        <v>0.08196322430041425</v>
+        <v>0.1625559851209856</v>
       </c>
       <c r="D73">
-        <v>-0.1925518617967364</v>
+        <v>-0.05917391087462302</v>
       </c>
       <c r="E73">
-        <v>0.1133291877104553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2908991162206366</v>
+      </c>
+      <c r="F73">
+        <v>0.2834158969207951</v>
+      </c>
+      <c r="G73">
+        <v>0.4153165979583164</v>
+      </c>
+      <c r="H73">
+        <v>-0.1238596558926577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09566384442596181</v>
+        <v>0.05185763001887727</v>
       </c>
       <c r="C74">
-        <v>0.1205984312431763</v>
+        <v>0.1405918129624406</v>
       </c>
       <c r="D74">
-        <v>0.05003076806672992</v>
+        <v>0.05053437156063247</v>
       </c>
       <c r="E74">
-        <v>-0.01251270671773231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02882555091877394</v>
+      </c>
+      <c r="F74">
+        <v>-0.03098257344346931</v>
+      </c>
+      <c r="G74">
+        <v>0.008006340206003187</v>
+      </c>
+      <c r="H74">
+        <v>0.0008364871657649378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2110037834891896</v>
+        <v>0.1006894323678825</v>
       </c>
       <c r="C75">
-        <v>0.2163530904664608</v>
+        <v>0.2604284782349634</v>
       </c>
       <c r="D75">
-        <v>0.05657166184431146</v>
+        <v>0.1219636714020595</v>
       </c>
       <c r="E75">
-        <v>0.0894497289420088</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1178905384368742</v>
+      </c>
+      <c r="F75">
+        <v>0.05404369080282316</v>
+      </c>
+      <c r="G75">
+        <v>-0.1068394459807337</v>
+      </c>
+      <c r="H75">
+        <v>0.07943514252534195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.125571196612263</v>
+        <v>0.06053575687504449</v>
       </c>
       <c r="C76">
-        <v>0.144801951521407</v>
+        <v>0.1756331214370465</v>
       </c>
       <c r="D76">
-        <v>0.0006684083986330015</v>
+        <v>0.05333285399619778</v>
       </c>
       <c r="E76">
-        <v>0.01774667414777287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03930752005940075</v>
+      </c>
+      <c r="F76">
+        <v>0.005479141165717576</v>
+      </c>
+      <c r="G76">
+        <v>-0.0450202558756797</v>
+      </c>
+      <c r="H76">
+        <v>0.01737534073270403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01395931424895139</v>
+        <v>0.003759888787048912</v>
       </c>
       <c r="C77">
-        <v>0.08014551719912494</v>
+        <v>0.1215494288344304</v>
       </c>
       <c r="D77">
-        <v>-0.2153534789608441</v>
+        <v>-0.5051568153410276</v>
       </c>
       <c r="E77">
-        <v>-0.1618830855589098</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7622292741750643</v>
+      </c>
+      <c r="F77">
+        <v>0.1745919508069705</v>
+      </c>
+      <c r="G77">
+        <v>0.2183669911000842</v>
+      </c>
+      <c r="H77">
+        <v>-0.004128840396636341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03282081431893588</v>
+        <v>0.02317100148593011</v>
       </c>
       <c r="C78">
-        <v>0.0739722451513629</v>
+        <v>0.09534048532350675</v>
       </c>
       <c r="D78">
-        <v>-0.1489713328791873</v>
+        <v>-0.08366760218088003</v>
       </c>
       <c r="E78">
-        <v>-0.09709313770964355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08215793743129982</v>
+      </c>
+      <c r="F78">
+        <v>-0.04482329793518673</v>
+      </c>
+      <c r="G78">
+        <v>-0.09386819320410106</v>
+      </c>
+      <c r="H78">
+        <v>-0.03586969505585224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1057493368224275</v>
+        <v>0.05155211868889155</v>
       </c>
       <c r="C79">
-        <v>0.2110699520504798</v>
+        <v>0.2141192252023748</v>
       </c>
       <c r="D79">
-        <v>0.5132089195170109</v>
+        <v>0.1412967745057984</v>
       </c>
       <c r="E79">
-        <v>-0.7391905591301982</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1037815672236406</v>
+      </c>
+      <c r="F79">
+        <v>-0.7929965585330638</v>
+      </c>
+      <c r="G79">
+        <v>0.4176633610527988</v>
+      </c>
+      <c r="H79">
+        <v>-0.01794006634558806</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002932087067802144</v>
+        <v>0.007713612147440825</v>
       </c>
       <c r="C80">
-        <v>0.04563009256902068</v>
+        <v>0.04593472490457211</v>
       </c>
       <c r="D80">
-        <v>-0.04255652005275965</v>
+        <v>-0.02826195708597961</v>
       </c>
       <c r="E80">
-        <v>-0.004695564528808957</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06223041994406652</v>
+      </c>
+      <c r="F80">
+        <v>-0.0006527056910628868</v>
+      </c>
+      <c r="G80">
+        <v>-0.0221275745056676</v>
+      </c>
+      <c r="H80">
+        <v>-0.08618761538488279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1031219881498792</v>
+        <v>0.03753896986973762</v>
       </c>
       <c r="C81">
-        <v>0.1394668105832245</v>
+        <v>0.1580790594879364</v>
       </c>
       <c r="D81">
-        <v>0.08064590085769084</v>
+        <v>0.07506765919992685</v>
       </c>
       <c r="E81">
-        <v>0.005647955039763896</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06422024940881829</v>
+      </c>
+      <c r="F81">
+        <v>-0.05123163606647924</v>
+      </c>
+      <c r="G81">
+        <v>-0.07223077134787542</v>
+      </c>
+      <c r="H81">
+        <v>-0.001408879178354372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2112845897027967</v>
+        <v>0.0831305843499395</v>
       </c>
       <c r="C82">
-        <v>0.3121824946707606</v>
+        <v>0.2981674739016588</v>
       </c>
       <c r="D82">
-        <v>0.09311357874188826</v>
+        <v>0.216160409916402</v>
       </c>
       <c r="E82">
-        <v>0.2297363396638936</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1059458799344306</v>
+      </c>
+      <c r="F82">
+        <v>0.1268566554710301</v>
+      </c>
+      <c r="G82">
+        <v>-0.1466502937717493</v>
+      </c>
+      <c r="H82">
+        <v>-0.007599822309700448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01065103937991142</v>
+        <v>-0.006782921476625319</v>
       </c>
       <c r="C83">
-        <v>0.04862938785518855</v>
+        <v>0.01839594052307355</v>
       </c>
       <c r="D83">
-        <v>-0.01236405754371286</v>
+        <v>-0.02897799873983377</v>
       </c>
       <c r="E83">
-        <v>-0.04822268167304095</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09331462742961513</v>
+      </c>
+      <c r="F83">
+        <v>-0.08526324934956291</v>
+      </c>
+      <c r="G83">
+        <v>-0.237538354749757</v>
+      </c>
+      <c r="H83">
+        <v>-0.9043503629171152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001040280356730246</v>
+        <v>-0.003755192068563794</v>
       </c>
       <c r="C84">
-        <v>0.002701217841335707</v>
+        <v>0.01738373902411312</v>
       </c>
       <c r="D84">
-        <v>-0.007595698822927256</v>
+        <v>-0.04258448417758794</v>
       </c>
       <c r="E84">
-        <v>0.002013231939874973</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01470364979955947</v>
+      </c>
+      <c r="F84">
+        <v>-0.02819210502340583</v>
+      </c>
+      <c r="G84">
+        <v>-0.05554543090697192</v>
+      </c>
+      <c r="H84">
+        <v>0.0576663254514694</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1295041831364635</v>
+        <v>0.05708240836089028</v>
       </c>
       <c r="C85">
-        <v>0.1524967526769655</v>
+        <v>0.175839388129322</v>
       </c>
       <c r="D85">
-        <v>0.08547284078732202</v>
+        <v>0.1139621793326043</v>
       </c>
       <c r="E85">
-        <v>-0.002547058590665795</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02368034184459904</v>
+      </c>
+      <c r="F85">
+        <v>-0.05915305656321928</v>
+      </c>
+      <c r="G85">
+        <v>-0.02235920515198265</v>
+      </c>
+      <c r="H85">
+        <v>0.02028991418795516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0238105972029937</v>
+        <v>0.0172537893242929</v>
       </c>
       <c r="C86">
-        <v>0.009250774941663854</v>
+        <v>0.04117181199420958</v>
       </c>
       <c r="D86">
-        <v>-0.1094252069882563</v>
+        <v>-0.1106420651418979</v>
       </c>
       <c r="E86">
-        <v>-0.05584941061277363</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.002612910185474156</v>
+      </c>
+      <c r="F86">
+        <v>-0.02205008481124669</v>
+      </c>
+      <c r="G86">
+        <v>0.008384644339673834</v>
+      </c>
+      <c r="H86">
+        <v>0.0201776559199837</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02358840687129262</v>
+        <v>0.01262693500262469</v>
       </c>
       <c r="C87">
-        <v>0.03453419431581</v>
+        <v>0.06807406203835382</v>
       </c>
       <c r="D87">
-        <v>-0.1357258907968452</v>
+        <v>-0.127464676111755</v>
       </c>
       <c r="E87">
-        <v>-0.09688460528657541</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05200026977910206</v>
+      </c>
+      <c r="F87">
+        <v>-0.04588352961155258</v>
+      </c>
+      <c r="G87">
+        <v>-0.08290887334009248</v>
+      </c>
+      <c r="H87">
+        <v>-0.002552130285854988</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04506967236561687</v>
+        <v>0.03354483088282561</v>
       </c>
       <c r="C88">
-        <v>0.04924784695870033</v>
+        <v>0.07103980418325861</v>
       </c>
       <c r="D88">
-        <v>-0.001008536629675453</v>
+        <v>-0.01137604518313296</v>
       </c>
       <c r="E88">
-        <v>-0.02275993911013635</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03267183505426469</v>
+      </c>
+      <c r="F88">
+        <v>-0.02163598489896447</v>
+      </c>
+      <c r="G88">
+        <v>0.008993630294721406</v>
+      </c>
+      <c r="H88">
+        <v>0.01570591780541987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3458139626369428</v>
+        <v>0.3964076186890109</v>
       </c>
       <c r="C89">
-        <v>-0.2953038020861715</v>
+        <v>-0.1664406008958605</v>
       </c>
       <c r="D89">
-        <v>-0.02684954833097439</v>
+        <v>-0.05312704732819118</v>
       </c>
       <c r="E89">
-        <v>-0.1155235135247007</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03216287319657619</v>
+      </c>
+      <c r="F89">
+        <v>-0.07242964877090706</v>
+      </c>
+      <c r="G89">
+        <v>-0.08369598678310539</v>
+      </c>
+      <c r="H89">
+        <v>-0.0726646038491577</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2759135780681246</v>
+        <v>0.3221454894580157</v>
       </c>
       <c r="C90">
-        <v>-0.2173558926884464</v>
+        <v>-0.1076549994467596</v>
       </c>
       <c r="D90">
-        <v>-0.05820511787974323</v>
+        <v>-0.03337596396761223</v>
       </c>
       <c r="E90">
-        <v>-0.004324761281862464</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0003179221361590315</v>
+      </c>
+      <c r="F90">
+        <v>0.009587102598953717</v>
+      </c>
+      <c r="G90">
+        <v>-0.05624930901512407</v>
+      </c>
+      <c r="H90">
+        <v>-0.00225395409396215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1345618176074376</v>
+        <v>0.06747037100372946</v>
       </c>
       <c r="C91">
-        <v>0.2012370795814739</v>
+        <v>0.2024390862291974</v>
       </c>
       <c r="D91">
-        <v>0.09002315993285712</v>
+        <v>0.09978569259166967</v>
       </c>
       <c r="E91">
-        <v>-0.0359786080404844</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08324222109076193</v>
+      </c>
+      <c r="F91">
+        <v>-0.05914390930353862</v>
+      </c>
+      <c r="G91">
+        <v>-0.01380522154295612</v>
+      </c>
+      <c r="H91">
+        <v>-0.02098167401012359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2602798229314502</v>
+        <v>0.335156274410085</v>
       </c>
       <c r="C92">
-        <v>-0.2440070826732401</v>
+        <v>-0.1500795884814317</v>
       </c>
       <c r="D92">
-        <v>0.04953946393268701</v>
+        <v>-0.02067852302429266</v>
       </c>
       <c r="E92">
-        <v>-0.01728937243942057</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06741188216970458</v>
+      </c>
+      <c r="F92">
+        <v>-0.03577100955106649</v>
+      </c>
+      <c r="G92">
+        <v>-0.0001930169470112433</v>
+      </c>
+      <c r="H92">
+        <v>0.1332706070330463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2952364235159948</v>
+        <v>0.328751229649659</v>
       </c>
       <c r="C93">
-        <v>-0.222982336734559</v>
+        <v>-0.1205452936204441</v>
       </c>
       <c r="D93">
-        <v>0.02224551887022753</v>
+        <v>0.02526677666232967</v>
       </c>
       <c r="E93">
-        <v>0.01334361548065413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01117777855833088</v>
+      </c>
+      <c r="F93">
+        <v>-0.005608669719484357</v>
+      </c>
+      <c r="G93">
+        <v>0.02404124035936708</v>
+      </c>
+      <c r="H93">
+        <v>0.02064928047770781</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2497637743131864</v>
+        <v>0.1219315486081966</v>
       </c>
       <c r="C94">
-        <v>0.2846769526784588</v>
+        <v>0.3195169898362835</v>
       </c>
       <c r="D94">
-        <v>0.2029580481830433</v>
+        <v>0.3496508267671129</v>
       </c>
       <c r="E94">
-        <v>0.3153845543352069</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1354066348674588</v>
+      </c>
+      <c r="F94">
+        <v>0.158317057193628</v>
+      </c>
+      <c r="G94">
+        <v>-0.2876047279407583</v>
+      </c>
+      <c r="H94">
+        <v>0.09207900910086665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01208229210619027</v>
+        <v>0.0186597105056657</v>
       </c>
       <c r="C95">
-        <v>0.04782892913706199</v>
+        <v>0.07610668898661756</v>
       </c>
       <c r="D95">
-        <v>-0.112642599710688</v>
+        <v>-0.1383725753838793</v>
       </c>
       <c r="E95">
-        <v>-0.06760574148227445</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.09044537631520641</v>
+      </c>
+      <c r="F95">
+        <v>0.03281770246381249</v>
+      </c>
+      <c r="G95">
+        <v>0.06180452520845766</v>
+      </c>
+      <c r="H95">
+        <v>0.04578556152635421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002627653763392863</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009999000956341048</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0002733908956046833</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003862935860774225</v>
+      </c>
+      <c r="F97">
+        <v>-0.00113322753017667</v>
+      </c>
+      <c r="G97">
+        <v>-0.001714781610687954</v>
+      </c>
+      <c r="H97">
+        <v>0.005742419986748017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1468691388890785</v>
+        <v>0.1357641752603249</v>
       </c>
       <c r="C98">
-        <v>0.1000448720367972</v>
+        <v>0.1618707897621958</v>
       </c>
       <c r="D98">
-        <v>-0.1302215119105547</v>
+        <v>-0.01953035932399153</v>
       </c>
       <c r="E98">
-        <v>0.1117814407410276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1876415220973764</v>
+      </c>
+      <c r="F98">
+        <v>0.2374420799422045</v>
+      </c>
+      <c r="G98">
+        <v>0.3080268191395765</v>
+      </c>
+      <c r="H98">
+        <v>-0.1150802766449759</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002370616197923666</v>
+        <v>0.00282447519085913</v>
       </c>
       <c r="C101">
-        <v>0.01983349999910501</v>
+        <v>0.04048205688826809</v>
       </c>
       <c r="D101">
-        <v>-0.07105380755235992</v>
+        <v>-0.0923740095357161</v>
       </c>
       <c r="E101">
-        <v>-0.04797947102505304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.09966307391356348</v>
+      </c>
+      <c r="F101">
+        <v>-0.03907893665272538</v>
+      </c>
+      <c r="G101">
+        <v>-0.01550064314621477</v>
+      </c>
+      <c r="H101">
+        <v>-0.03776055493949543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08927056457833842</v>
+        <v>0.02281801067475582</v>
       </c>
       <c r="C102">
-        <v>0.1668928064604565</v>
+        <v>0.1381642123210896</v>
       </c>
       <c r="D102">
-        <v>0.01097815213458624</v>
+        <v>0.09484829820509047</v>
       </c>
       <c r="E102">
-        <v>0.1014385972691084</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05836612943302509</v>
+      </c>
+      <c r="F102">
+        <v>0.08543498631732094</v>
+      </c>
+      <c r="G102">
+        <v>-0.01167509334414568</v>
+      </c>
+      <c r="H102">
+        <v>-0.02460242184465442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
